--- a/data/testcases/testcases.xlsx
+++ b/data/testcases/testcases.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Search" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Cart" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Detail" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Payment" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,6 +417,4419 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loại test case</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dữ liệu test</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Kỳ vọng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thực tế</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kiểm tra ngôn ngữ hiển thị</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Giao diện hiển thị ngôn ngữ Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kiểm tra vị trí liên kết "Quên mật khẩu"</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Liên kết "Quên mật khẩu" nằm bên trái dưới ô Mật khẩu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiểm tra vị trí và màu sắc nút "Đăng nhập"</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nút "Đăng nhập" nằm ở dưới 2 ô input và có nền màu xanh dương</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiệu ứng hover nút "Đăng nhập"</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Khi hover vào nút "Đăng nhập", nền chuyển sang màu xám</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kiểm tra vị trí và màu sắc nút "Đăng ký"</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nút "Đăng ký" nằm ở dưới nút "Đăng nhập" và có nền màu xám</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiệu ứng hover nút "Đăng ký"</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khi hover vào nút "Đăng ký", nền chuyển sang màu xanh dương</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kiểm tra giao diện trên các thiết bị khác nhau</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Giao diện hệ thống không bị vỡ hoặc chèn ép các thành phần với nhau trên nhiều thiết bị khác nhau</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kiểm tra loại ô nhập Email</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ô nhập Email là textbox</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kiểm tra placeholder ô nhập Email</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Placeholder ô nhập Email là "Nhập email của bạn"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiệu ứng focus ô nhập Email</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Khi click vào ô nhập Email, có viền đậm bao quanh</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kiểm tra loại ô nhập Mật khẩu</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ô nhập Mật khẩu là textbox</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kiểm tra placeholder ô nhập Mật khẩu</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Placeholder ô nhập Mật khẩu là "Nhập mật khẩu của bạn"</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kiểm tra biểu tượng khóa ở ô nhập Mật khẩu</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Đầu ô nhập Mật khẩu có biểu tượng hình khóa</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiệu ứng focus ô nhập Mật khẩu</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Khi click vào ô nhập Mật khẩu, có viền đậm bao quanh</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị ký tự mật khẩu</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mật khẩu được mã hóa bằng ký tự "*"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email và Mật khẩu hợp lệ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: 123456</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công vào hệ thống</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email hợp lệ, Mật khẩu không hợp lệ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: sai</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TC18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email không hợp lệ, Mật khẩu hợp lệ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Email: sai, Mật khẩu: 123456</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TC19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email và Mật khẩu không hợp lệ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Email: sai, Mật khẩu: sai</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TC20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email bỏ trống, Mật khẩu hợp lệ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Email: , Mật khẩu: 123456</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Vui lòng không để trống Email"</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email hợp lệ, Mật khẩu bỏ trống</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu:</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Vui lòng không để trống mật khẩu"</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Đăng nhập với Email và Mật khẩu bỏ trống</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Email: , Mật khẩu:</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Vui lòng không để trống Email" và "Vui lòng không để trống mật khẩu"</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TC23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Đăng nhập với tài khoản bị khóa</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Email: tester2@gmail.com, Mật khẩu: 12345678</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo tài khoản bị khóa và thời gian mở khóa</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TC24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Đăng nhập với tài khoản đã bị xóa</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Email: tester3@gmail.com, Mật khẩu: 12345678</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TC25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kiểm tra định dạng Email hợp lệ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Email: test@example.com, Mật khẩu: 12345678</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công (nếu tài khoản tồn tại và mật khẩu đúng)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TC26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kiểm tra định dạng Email không hợp lệ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Email: testexample.com, Mật khẩu: 12345678</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi định dạng Email</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TC27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kiểm tra định dạng Email có ký tự đặc biệt không hợp lệ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Email: test!@example.com, Mật khẩu: 12345678</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi định dạng Email</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TC28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kiểm tra mật khẩu tối thiểu ký tự</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: 1234567</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi mật khẩu tối thiểu 8 ký tự (hoặc không cho đăng nhập nếu không có thông báo và tài khoản không tồn tại)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TC29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kiểm tra mật khẩu tối đa ký tự</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: 12345678901234567890123456</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi mật khẩu tối đa 25 ký tự (hoặc không cho đăng nhập nếu không có thông báo và tài khoản không tồn tại)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TC30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kiểm tra mật khẩu với ký tự cho phép</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: abcdefg123@#$%*</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công (nếu tài khoản tồn tại và mật khẩu đúng)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TC31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kiểm tra mật khẩu với ký tự không cho phép</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: abcdefg123`~!</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Không cho phép nhập ký tự hoặc hiển thị thông báo lỗi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TC32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Đăng nhập</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kiểm tra tài khoản bị khóa sau 5 lần nhập sai mật khẩu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Mật khẩu: wrong</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sau 5 lần nhập sai, tài khoản bị khóa và hiển thị thông báo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Message: no such element: Unable to locate element: {"method":"css selector","selector":".btn btn-primary rounded-1"}
+  (Session info: chrome=137.0.7151.70); For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Stacktrace:
+	GetHandleVerifier [0x0xb93783+63299]
+	GetHandleVerifier [0x0xb937c4+63364]
+	(No symbol) [0x0x9c1113]
+	(No symbol) [0x0xa0987e]
+	(No symbol) [0x0xa09c1b]
+	(No symbol) [0x0xa52212]
+	(No symbol) [0x0xa2e5c4]
+	(No symbol) [0x0xa4fa4a]
+	(No symbol) [0x0xa2e376]
+	(No symbol) [0x0x9fd6e0]
+	(No symbol) [0x0x9fe544]
+	GetHandleVerifier [0x0xdee073+2531379]
+	GetHandleVerifier [0x0xde9372+2511666]
+	GetHandleVerifier [0x0xbb9efa+220858]
+	GetHandleVerifier [0x0xbaa548+156936]
+	GetHandleVerifier [0x0xbb0c7d+183357]
+	GetHandleVerifier [0x0xb9b6e8+95912]
+	GetHandleVerifier [0x0xb9b890+96336]
+	GetHandleVerifier [0x0xb8666a+9770]
+	BaseThreadInitThunk [0x0x75175d49+25]
+	RtlInitializeExceptionChain [0x0x7745d03b+107]
+	RtlGetAppContainerNamedObjectPath [0x0x7745cfc1+561]
+</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loại test case</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dữ liệu test</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Kỳ vọng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thực tế</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kiểm tra vị trí của ô tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Ô tìm kiếm hiển thị trên thanh header của trang</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kiểm tra placeholder của ô tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Placeholder hiển thị là "Tìm kiếm sản phẩm"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiểm tra ngôn ngữ hiển thị của placeholder</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Placeholder hiển thị bằng tiếng Việt</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kiểm tra sự tồn tại của button tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Button tìm kiếm hình kính lúp hiển thị bên phải ô tìm kiếm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kiểm tra icon của button tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Button tìm kiếm hiển thị icon kính lúp</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kiểm tra vị trí của button tìm kiếm so với ô tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Button tìm kiếm nằm ở bên phải ô tìm kiếm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kiểm tra khả năng nhập liệu vào ô tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ô tìm kiếm cho phép nhập liệu</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa hợp lệ (Life)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Danh sách sản phẩm chứa từ khóa "Life" hiển thị</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa hợp lệ (Vintage)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Từ khóa: Vintage</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Danh sách sản phẩm chứa từ khóa "Vintage" hiển thị</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa hợp lệ (Charm)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Từ khóa: Charm</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Danh sách sản phẩm chứa từ khóa "Charm" hiển thị</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa không hợp lệ (zz)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Từ khóa: zz</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Xem thêm" và không hiển thị sản phẩm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa không hợp lệ (xyz)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Từ khóa: xyz</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Xem thêm" và không hiển thị sản phẩm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là ký tự đặc biệt</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Từ khóa: @#$%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Xem thêm" hoặc danh sách sản phẩm (nếu có)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là số</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Từ khóa: 12345</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Xem thêm" hoặc danh sách sản phẩm (nếu có)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là chuỗi ký tự dài</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Từ khóa: ThisIsAVeryLongSearchKeyword</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Xem thêm" hoặc danh sách sản phẩm (nếu có)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là khoảng trắng</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Từ khóa:</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Hiển thị lại trang sản phẩm gốc hoặc thông báo không tìm thấy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là chữ hoa chữ thường lẫn lộn (LiFe)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Từ khóa: LiFe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Danh sách sản phẩm chứa từ khóa "Life" hiển thị (không phân biệt hoa thường)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TC18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tìm kiếm và bấm Enter</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Danh sách sản phẩm chứa từ khóa "Life" hiển thị</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TC19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tìm kiếm và bấm button kính lúp</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Danh sách sản phẩm chứa từ khóa "Life" hiển thị</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TC20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tìm kiếm không nhập liệu và bấm Enter</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Từ khóa:</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Hiển thị lại trang sản phẩm gốc hoặc thông báo không tìm thấy</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tìm kiếm không nhập liệu và bấm button kính lúp</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Từ khóa:</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hiển thị lại trang sản phẩm gốc hoặc thông báo không tìm thấy</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa có dấu (Ví dụ: Áo dài)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Từ khóa: Áo dài</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hiển thị danh sách sản phẩm chứa từ khóa "Áo dài" (nếu có)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TC23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa gần đúng (Ví dụ: Lif)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Từ khóa: Lif</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hiển thị danh sách sản phẩm chứa từ khóa "Life" (nếu có)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TC24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Tìm kiếm từ khóa có chứa khoảng trắng ở đầu hoặc cuối ( Life )</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Từ khóa:  Life</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Hiển thị danh sách sản phẩm chứa từ khóa "Life" (nếu có)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TC25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm với kết quả trả về là 1 sản phẩm duy nhất.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Từ khóa: Charm</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hiển thị danh sách sản phẩm chứa từ khóa "Charm" (chỉ 1 sản phẩm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TC26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm, sau đó sửa lại từ khóa và tìm kiếm lại.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life -&gt; Vintage</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hiển thị danh sách sản phẩm chứa từ khóa "Vintage"</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TC27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kiểm tra tính năng "Xem thêm" khi không tìm thấy sản phẩm.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Từ khóa: zz</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Bấm "Xem thêm" sẽ chuyển đến trang danh sách sản phẩm (hoặc trang liên quan)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TC28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Tìm kiếm từ khóa quá dài vượt quá độ dài cho phép của ô tìm kiếm.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Từ khóa: ThisIsAVeryVeryVeryVeryVeryVeryVeryVeryVeryVeryVeryLongKeyword</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Xem thêm" hoặc danh sách sản phẩm (nếu có)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loại test case</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dữ liệu test</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Kỳ vọng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thực tế</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kiểm tra giao diện chung của trang giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>"Hiển thị đầy đủ các thành phần: Sản phẩm, Đơn giá, Số lượng, Tổng, Button xóa, Tổng tiền, Button thanh toán, Liên kết 'Tiếp tục mua sắm'. Ngôn ngữ hiển thị Tiếng Việt."</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị thông tin sản phẩm trong giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>"Hiển thị đầy đủ thông tin sản phẩm: tên sản phẩm, hình ảnh, đơn giá."</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị đơn giá sản phẩm</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>"Đơn giá sản phẩm hiển thị đúng định dạng số (có thể có dấu phẩy ngăn cách hàng nghìn) và đơn vị tiền tệ (VND)."</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị số lượng sản phẩm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>"Số lượng sản phẩm hiển thị ở dạng số, có thể chỉnh sửa được."</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị tổng tiền của từng sản phẩm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>"Tổng tiền của từng sản phẩm hiển thị đúng định dạng số và đơn vị tiền tệ (VND)."</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị button xóa sản phẩm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>"Button xóa sản phẩm hiển thị rõ ràng, dễ nhận biết."</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị tổng tiền của giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>"Tổng tiền của giỏ hàng hiển thị đúng định dạng số và đơn vị tiền tệ (VND)."</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị button thanh toán</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>"Button thanh toán hiển thị rõ ràng, dễ nhận biết."</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị liên kết 'Tiếp tục mua sắm'</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>"Liên kết 'Tiếp tục mua sắm' hiển thị rõ ràng, dễ nhận biết."</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thêm sản phẩm vào giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng: 1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>"Sản phẩm A được thêm vào giỏ hàng với số lượng là 1. Thông tin sản phẩm hiển thị chính xác."</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thêm nhiều sản phẩm khác nhau vào giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng: 1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm B, Số lượng: 2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>"Sản phẩm A và sản phẩm B được thêm vào giỏ hàng. Thông tin mỗi sản phẩm hiển thị chính xác."</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thêm sản phẩm đã có trong giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng: 1 (trong giỏ hàng)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng: 2 (thêm vào)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>"Số lượng của Sản phẩm A trong giỏ hàng tăng lên thành 3."</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thay đổi số lượng sản phẩm trong giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 1, Số lượng (sau): 5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>"Số lượng của Sản phẩm A trong giỏ hàng thay đổi thành 5. Tổng tiền của sản phẩm và tổng tiền giỏ hàng được cập nhật chính xác."</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thay đổi số lượng sản phẩm thành 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 2, Số lượng (sau): 1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>"Số lượng của Sản phẩm A trong giỏ hàng thay đổi thành 1. Tổng tiền của sản phẩm và tổng tiền giỏ hàng được cập nhật chính xác."</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thay đổi số lượng sản phẩm thành số âm hoặc 0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 2, Số lượng (sau): 0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>"Số lượng của Sản phẩm A không thay đổi, hoặc hệ thống hiển thị thông báo lỗi."</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thay đổi số lượng sản phẩm thành số âm hoặc 0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 2, Số lượng (sau): -1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>"Số lượng của Sản phẩm A không thay đổi, hoặc hệ thống hiển thị thông báo lỗi."</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thay đổi số lượng sản phẩm bằng số không hợp lệ (ví dụ: chữ)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 2, Số lượng (sau): abc</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>"Số lượng của Sản phẩm A không thay đổi, hoặc hệ thống hiển thị thông báo lỗi."</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TC18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Xóa sản phẩm khỏi giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>"Sản phẩm A bị xóa khỏi giỏ hàng. Tổng tiền giỏ hàng được cập nhật chính xác."</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TC19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Xóa nhiều sản phẩm khỏi giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Sản phẩm B</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>"Sản phẩm A và Sản phẩm B bị xóa khỏi giỏ hàng. Tổng tiền giỏ hàng được cập nhật chính xác."</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TC20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Xóa sản phẩm không có trong giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>"Không có sản phẩm nào bị xóa. Hệ thống có thể hiển thị thông báo lỗi (tùy chọn)."</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kiểm tra tính toán tổng tiền của từng sản phẩm</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Đơn giá: 10000 VND, Số lượng: 3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>"Tổng tiền của Sản phẩm A là 30000 VND."</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kiểm tra tính toán tổng tiền của giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Đơn giá: 10000 VND, Số lượng: 2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm B, Đơn giá: 20000 VND, Số lượng: 1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>"Tổng tiền của giỏ hàng là 40000 VND."</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TC23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kiểm tra button 'Thanh toán'</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>"Khi click vào button 'Thanh toán', hệ thống chuyển hướng đến trang thanh toán."</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TC24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kiểm tra liên kết 'Tiếp tục mua sắm'</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>"Khi click vào liên kết 'Tiếp tục mua sắm', hệ thống chuyển hướng đến trang chủ hoặc trang sản phẩm."</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TC25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Giỏ hàng trống</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>"Hiển thị thông báo giỏ hàng trống nếu không có sản phẩm nào trong giỏ hàng."</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TC26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Đơn giá sản phẩm quá lớn</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Đơn giá: 9999999999 VND, Số lượng: 1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>"Hệ thống hiển thị đúng đơn giá và tổng tiền. Đảm bảo không bị tràn số."</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TC27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm quá lớn</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Đơn giá: 10000 VND, Số lượng: 9999999999</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>"Hệ thống hiển thị đúng số lượng và tổng tiền (nếu tính toán được). Nếu vượt quá giới hạn cho phép, hệ thống hiển thị thông báo lỗi."</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TC28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kiểm tra giỏ hàng khi chưa đăng nhập</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>"Khi chưa đăng nhập, giỏ hàng vẫn hoạt động bình thường (nếu hệ thống cho phép). Hoặc hệ thống yêu cầu đăng nhập để xem giỏ hàng."</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TC29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kiểm tra giỏ hàng sau khi đăng nhập (có sản phẩm trước khi đăng nhập)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>"Các sản phẩm đã thêm vào giỏ hàng trước khi đăng nhập vẫn còn sau khi đăng nhập."</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TC30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kiểm tra giỏ hàng sau khi đăng xuất</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>"Các sản phẩm trong giỏ hàng được lưu lại (nếu hệ thống hỗ trợ giỏ hàng không cần đăng nhập) hoặc giỏ hàng trở về trạng thái trống (nếu giỏ hàng yêu cầu đăng nhập)."</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TC31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Kiểm tra giới hạn số lượng sản phẩm tối đa trong giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Nhiều sản phẩm khác nhau đến giới hạn tối đa</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>"Hệ thống không cho phép thêm sản phẩm vượt quá giới hạn. Hiển thị thông báo lỗi phù hợp."</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TC32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kiểm tra việc hiển thị thông báo khi xóa sản phẩm thành công</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>"Hiển thị thông báo xác nhận xóa sản phẩm thành công (ví dụ: 'Đã xóa sản phẩm A khỏi giỏ hàng')."</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TC33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Kiểm tra việc hiển thị thông báo khi số lượng sản phẩm không hợp lệ</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 2, Số lượng (sau): ký tự chữ</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>"Hiển thị thông báo lỗi rõ ràng cho biết số lượng sản phẩm không hợp lệ (ví dụ: 'Vui lòng nhập số lượng là một số nguyên dương')."</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TC34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thay đổi số lượng sản phẩm thành một số rất lớn</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Số lượng (trước): 1, Số lượng (sau): 999999999999</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>"Nếu hệ thống cho phép: Hiển thị đúng số lượng và tổng tiền (nếu tính toán được). Nếu vượt quá giới hạn cho phép: Hệ thống hiển thị thông báo lỗi hoặc tự động giới hạn số lượng tối đa."</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TC35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Xóa tất cả sản phẩm khỏi giỏ hàng bằng cách xóa từng sản phẩm một</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Nhiều sản phẩm khác nhau</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>"Sau khi xóa hết các sản phẩm, giỏ hàng hiển thị thông báo giỏ hàng trống."</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TC36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Kiểm tra giỏ hàng sau khi refresh trang</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>"Các sản phẩm trong giỏ hàng, số lượng và tổng tiền vẫn được giữ nguyên sau khi refresh trang."</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TC37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kiểm tra giỏ hàng khi chuyển đổi giữa các trang khác nhau trên website</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>"Các sản phẩm trong giỏ hàng, số lượng và tổng tiền vẫn được giữ nguyên khi chuyển đổi giữa các trang (ví dụ: từ trang chủ sang trang sản phẩm)."</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TC38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Kiểm tra việc xử lý khi đơn giá của sản phẩm bị thay đổi (ví dụ: do khuyến mãi)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Đơn giá (trước): 10000 VND, Đơn giá (sau): 8000 VND</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>"Đơn giá sản phẩm A trong giỏ hàng được cập nhật thành 8000 VND. Tổng tiền sản phẩm và tổng tiền giỏ hàng được cập nhật chính xác."</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TC39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Kiểm tra việc xử lý khi sản phẩm không còn hàng</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A (hết hàng)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>"Sản phẩm A vẫn hiển thị trong giỏ hàng nhưng không cho phép thay đổi số lượng hoặc xóa (tùy theo thiết kế). Hoặc sản phẩm A bị tự động xóa khỏi giỏ hàng. Hoặc hiển thị thông báo sản phẩm hết hàng."</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TC40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kiểm tra khi người dùng thêm cùng một sản phẩm vào giỏ hàng từ nhiều tab trình duyệt khác nhau</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sản phẩm: Sản phẩm A, Nhiều tab trình duyệt</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>"Số lượng sản phẩm A trong giỏ hàng được đồng bộ trên tất cả các tab trình duyệt."</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -444,7 +4861,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Các bước thực hiện</t>
+          <t>Dữ liệu test</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -471,7 +4888,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,17 +4898,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kiểm tra ngôn ngữ hiển thị</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị đầy đủ thông tin sản phẩm (tên, ảnh, giá, mô tả, phân loại, số lượng)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ngôn ngữ hiển thị là Tiếng Việt</t>
+          <t>Hiển thị đầy đủ thông tin sản phẩm, hình ảnh rõ nét, không bị lỗi font chữ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -505,7 +4918,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +4928,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kiểm tra vị trí liên kết "Quên mật khẩu"</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị đơn giá, phân loại, số lượng, số lượng thêm vào giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liên kết "Quên mật khẩu" nằm bên trái dưới ô Mật khẩu</t>
+          <t>Hiển thị đầy đủ thông tin đơn giá, phân loại (nếu có), số lượng tồn kho (nếu có), ô nhập/chọn số lượng thêm vào giỏ hàng, nút thêm vào giỏ hàng</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -539,7 +4948,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,17 +4958,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kiểm tra vị trí và màu sắc nút "Đăng nhập"</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị ngôn ngữ tiếng Việt</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nút "Đăng nhập" nằm dưới 2 ô input và có nền màu xanh dương</t>
+          <t>Giao diện hiển thị hoàn toàn bằng tiếng Việt, không có lỗi chính tả</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -573,7 +4978,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,17 +4988,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kiểm tra màu sắc nút "Đăng nhập" khi hover</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập, di chuột vào nút "Đăng nhập"</t>
-        </is>
-      </c>
+          <t>Kiểm tra vị trí các thành phần trên trang (tên, ảnh, giá, mô tả, phân loại, số lượng, nút thêm vào giỏ hàng)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nút "Đăng nhập" có nền màu xám khi hover</t>
+          <t>Các thành phần hiển thị đúng vị trí, bố cục hợp lý, dễ nhìn, dễ thao tác</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -607,7 +5008,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,17 +5018,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kiểm tra vị trí và màu sắc nút "Đăng ký"</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra responsive trên các thiết bị khác nhau (desktop, mobile, tablet)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nút "Đăng ký" nằm dưới nút "Đăng nhập" và có nền màu xám</t>
+          <t>Giao diện hiển thị tốt trên các thiết bị, không bị vỡ layout, các thành phần không bị che khuất</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -641,7 +5038,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,17 +5048,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kiểm tra màu sắc nút "Đăng ký" khi hover</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập, di chuột vào nút "Đăng ký"</t>
-        </is>
-      </c>
+          <t>Kiểm tra hình ảnh sản phẩm hiển thị rõ ràng, không bị mờ, vỡ ảnh</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nút "Đăng ký" có nền màu xanh dương khi hover</t>
+          <t>Hình ảnh sản phẩm hiển thị rõ ràng, chất lượng tốt</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -675,7 +5068,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -685,17 +5078,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kiểm tra giao diện trên desktop</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập trên desktop</t>
-        </is>
-      </c>
+          <t>Kiểm tra mô tả sản phẩm hiển thị đầy đủ, không bị cắt xén</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Giao diện hiển thị đầy đủ, không bị vỡ, không bị chèn ép</t>
+          <t>Mô tả sản phẩm hiển thị đầy đủ, dễ đọc, không bị lỗi font chữ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -709,7 +5098,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -719,17 +5108,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kiểm tra giao diện trên tablet</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập trên tablet</t>
-        </is>
-      </c>
+          <t>Kiểm tra nút thêm vào giỏ hàng có hiển thị và hoạt động</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Giao diện hiển thị đầy đủ, không bị vỡ, không bị chèn ép</t>
+          <t>Nút "Thêm vào giỏ hàng" hiển thị rõ ràng và có thể click được</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -743,27 +5128,1096 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Xem chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kiểm tra chọn phân loại sản phẩm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chọn một phân loại sản phẩm (ví dụ: màu sắc, kích cỡ)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Số lượng tồn kho hiển thị tương ứng với phân loại đã chọn, giá sản phẩm thay đổi (nếu có)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kiểm tra số lượng hiển thị theo phân loại được chọn (có hàng)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chọn một phân loại sản phẩm có số lượng &gt; 0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Số lượng tồn kho của phân loại đó hiển thị chính xác</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kiểm tra số lượng hiển thị theo phân loại được chọn (hết hàng)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chọn một phân loại sản phẩm có số lượng = 0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Thông báo "Hết hàng" hoặc vô hiệu hóa nút thêm vào giỏ hàng</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kiểm tra nhập số lượng hợp lệ (số dương, nhỏ hơn hoặc bằng số lượng tồn kho)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Nhập số lượng là một số dương, nhỏ hơn hoặc bằng số lượng tồn kho của phân loại</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Số lượng nhập hợp lệ và được chấp nhận</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kiểm tra nhập số lượng không hợp lệ (số âm)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nhập số lượng là một số âm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Thông báo lỗi "Số lượng phải lớn hơn 0"</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kiểm tra nhập số lượng không hợp lệ (số 0)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Nhập số lượng là 0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Thông báo lỗi "Số lượng phải lớn hơn 0"</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kiểm tra nhập số lượng không hợp lệ (lớn hơn số lượng tồn kho)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Nhập số lượng lớn hơn số lượng tồn kho</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Thông báo lỗi "Số lượng không đủ"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kiểm tra nhập số lượng không hợp lệ (không phải số)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nhập số lượng là một chuỗi ký tự không phải số</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Thông báo lỗi "Số lượng phải là một số"</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Kiểm tra tăng số lượng bằng nút "+"</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Bấm nút "+" để tăng số lượng</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Số lượng tăng lên 1 đơn vị, không vượt quá số lượng tồn kho</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TC18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Kiểm tra giảm số lượng bằng nút "-"</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Bấm nút "-" để giảm số lượng</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Số lượng giảm xuống 1 đơn vị, không nhỏ hơn 1</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TC19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kiểm tra thêm vào giỏ hàng khi chưa chọn phân loại</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bấm nút "Thêm vào giỏ hàng" khi chưa chọn phân loại</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Thông báo lỗi "Vui lòng chọn phân loại sản phẩm"</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TC20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Kiểm tra thêm vào giỏ hàng khi số lượng không hợp lệ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bấm nút "Thêm vào giỏ hàng" khi số lượng là 0 hoặc số âm</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Thông báo lỗi "Số lượng không hợp lệ"</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TC21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Kiểm tra thêm vào giỏ hàng khi chưa đăng nhập</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bấm nút "Thêm vào giỏ hàng" khi chưa đăng nhập</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Vui lòng đăng nhập để thêm sản phẩm vào giỏ hàng" hoặc chuyển hướng đến trang đăng nhập</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TC22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Kiểm tra thêm vào giỏ hàng thành công (đã đăng nhập, chọn phân loại, số lượng hợp lệ)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Password: 123456</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công, chọn phân loại, nhập số lượng hợp lệ, bấm nút "Thêm vào giỏ hàng"</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo "Thêm vào giỏ hàng thành công" hoặc chuyển hướng đến trang giỏ hàng, sản phẩm được thêm vào giỏ hàng với số lượng đã chọn</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TC23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kiểm tra số lượng sản phẩm trong giỏ hàng sau khi thêm thành công (số lượng &lt; số lượng tồn kho)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Password: 123456</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công, chọn phân loại, nhập số lượng hợp lệ (số lượng &lt; số lượng tồn kho), bấm nút "Thêm vào giỏ hàng"</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm trong giỏ hàng được cập nhật chính xác, số lượng tồn kho giảm đi tương ứng</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TC24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Kiểm tra số lượng sản phẩm trong giỏ hàng sau khi thêm thành công (số lượng = số lượng tồn kho)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Password: 123456</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công, chọn phân loại, nhập số lượng hợp lệ (số lượng = số lượng tồn kho), bấm nút "Thêm vào giỏ hàng"</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm trong giỏ hàng được cập nhật chính xác, số lượng tồn kho hiển thị là 0 hoặc thông báo "Hết hàng" cho phân loại đó</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TC25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Kiểm tra thêm nhiều sản phẩm khác nhau vào giỏ hàng</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Password: 123456</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công, thêm nhiều sản phẩm khác nhau vào giỏ hàng</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Tất cả các sản phẩm được thêm vào giỏ hàng với số lượng đã chọn</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TC26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Kiểm tra thêm cùng 1 sản phẩm với các phân loại khác nhau</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Password: 123456</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công, thêm cùng 1 sản phẩm với các phân loại khác nhau (ví dụ: cùng 1 áo nhưng màu sắc khác nhau)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Các sản phẩm được thêm vào giỏ hàng dưới dạng các mục riêng biệt, mỗi mục tương ứng với 1 phân loại</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TC27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kiểm tra thông báo khi thêm sản phẩm đã có trong giỏ hàng (cùng phân loại)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Email: tester1@gmail.com, Password: 123456</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công, sản phẩm đã có trong giỏ hàng (cùng phân loại), thêm lại sản phẩm đó với số lượng mới</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm trong giỏ hàng được cập nhật (cộng thêm số lượng mới), không tạo thêm mục mới</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TC28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kiểm tra khi click vào ảnh sản phẩm</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Click vào ảnh sản phẩm</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Ảnh sản phẩm hiển thị ở kích thước lớn hơn (popup hoặc chuyển sang trang chi tiết ảnh)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TC29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kiểm tra khi sản phẩm không có phân loại</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Kiểm tra sản phẩm không có phân loại (ví dụ: sách, đồ gia dụng đơn giản)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Không hiển thị phần chọn phân loại, chỉ hiển thị số lượng tồn kho (nếu có) và ô nhập số lượng</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TC30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Xem chi tiết sản phẩm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kiểm tra khi số lượng tồn kho rất lớn (ví dụ: &gt;1000)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Kiểm tra với sản phẩm có số lượng tồn kho rất lớn</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Số lượng tồn kho hiển thị chính xác, không bị lỗi hiển thị</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loại test case</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dữ liệu test</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Kỳ vọng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thực tế</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>UI</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị tiêu đề trang thanh toán</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tiêu đề trang hiển thị "Thanh toán"</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị nhãn "Chi tiết thanh toán"</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Hiển thị nhãn "Chi tiết thanh toán"</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị trường "Họ và tên"</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hiển thị trường nhập "Họ và tên" với nhãn tương ứng.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị trường "Số điện thoại"</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hiển thị trường nhập "Số điện thoại" với nhãn tương ứng.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị trường "Địa chỉ"</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hiển thị trường nhập "Địa chỉ" với nhãn tương ứng.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị nhãn "Tóm tắt đơn hàng"</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hiển thị nhãn "Tóm tắt đơn hàng"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị thông tin sản phẩm đã chọn (tên, số lượng)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hiển thị tên sản phẩm và số lượng tương ứng với đơn hàng.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị tổng tiền</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hiển thị tổng tiền chính xác của đơn hàng.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kiểm tra giao diện trên mobile</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập trên mobile</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị nhãn "Phương thức thanh toán"</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Giao diện hiển thị đầy đủ, không bị vỡ, không bị chèn ép</t>
+          <t>Hiển thị nhãn "Phương thức thanh toán"</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -777,7 +6231,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -787,17 +6241,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kiểm tra kiểu dữ liệu ô Email</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị radio button "Thanh toán khi nhận hàng"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ô Email là textbox</t>
+          <t>Hiển thị radio button "Thanh toán khi nhận hàng" với nhãn tương ứng.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -811,7 +6261,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -821,17 +6271,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kiểm tra placeholder ô Email</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị radio button "Thanh toán VNPAY"</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ô Email có placeholder là "Nhập email của bạn"</t>
+          <t>Hiển thị radio button "Thanh toán VNPAY" với nhãn tương ứng.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -845,7 +6291,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -855,17 +6301,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kiểm tra viền đậm ô Email khi click</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập, click vào ô Email</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị radio button "Thanh toán MOMO"</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ô Email có viền đậm khi click</t>
+          <t>Hiển thị radio button "Thanh toán MOMO" với nhãn tương ứng.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -879,7 +6321,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -889,17 +6331,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kiểm tra kiểu dữ liệu ô Mật khẩu</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Truy cập trang đăng nhập</t>
-        </is>
-      </c>
+          <t>Kiểm tra hiển thị nút "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ô Mật khẩu là textbox</t>
+          <t>Hiển thị nút "Đặt hàng"</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -913,27 +6351,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Chức năng</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Kiểm tra placeholder ô Mật khẩu</t>
+          <t>Thanh toán khi nhận hàng thành công</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Truy cập trang đăng nhập</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ô Mật khẩu có placeholder là "Nhập mật khẩu của bạn"</t>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng". Hiển thị thông báo "Đặt hàng thành công" và chuyển đến trang quản lý tài khoản.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -947,27 +6385,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Chức năng</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kiểm tra biểu tượng khóa ô Mật khẩu</t>
+          <t>Thanh toán VNPAY thành công</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Truy cập trang đăng nhập</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Đầu ô Mật khẩu có biểu tượng hình khóa</t>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng". Chuyển đến trang thanh toán VNPAY.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -981,27 +6419,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Chức năng</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kiểm tra viền đậm ô Mật khẩu khi click</t>
+          <t>Thanh toán MOMO thành công</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Truy cập trang đăng nhập, click vào ô Mật khẩu</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ô Mật khẩu có viền đậm khi click</t>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng". Chuyển đến cổng thanh toán MOMO.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1015,27 +6453,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Chức năng</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kiểm tra mật khẩu được mã hóa</t>
+          <t>Thanh toán khi nhận hàng với Họ và tên trống</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nhập mật khẩu vào ô mật khẩu</t>
+          <t>Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mật khẩu được mã hóa bằng kí tự "*"</t>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập họ và tên".</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1049,7 +6487,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1059,17 +6497,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Đăng nhập với Email và Mật khẩu hợp lệ</t>
+          <t>Thanh toán khi nhận hàng với Số điện thoại trống</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com) và Mật khẩu hợp lệ (123456), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Đăng nhập thành công và chuyển hướng đến trang chủ</t>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập số điện thoại".</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -1083,7 +6521,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1093,17 +6531,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Đăng nhập với Email sai định dạng</t>
+          <t>Thanh toán khi nhận hàng với Địa chỉ trống</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nhập Email sai định dạng (tester1gmail.com), nhập Mật khẩu hợp lệ (123456), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo lỗi "Vui lòng nhập đúng định dạng email"</t>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập địa chỉ".</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1117,7 +6555,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1127,17 +6565,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Đăng nhập với Email để trống</t>
+          <t>Thanh toán khi nhận hàng với Số điện thoại không đúng định dạng (dưới 10 số)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Để trống Email, nhập Mật khẩu hợp lệ (123456), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 090123456, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo "Vui lòng không để trống Email"</t>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Số điện thoại không hợp lệ".</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1151,7 +6589,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1161,17 +6599,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Đăng nhập với Mật khẩu để trống</t>
+          <t>Thanh toán khi nhận hàng với Số điện thoại không đúng định dạng (trên 10 số)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com), để trống Mật khẩu, nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 09012345678, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo "Vui lòng không để trống mật khẩu"</t>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Số điện thoại không hợp lệ".</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1185,7 +6623,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1195,17 +6633,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Đăng nhập với Email và Mật khẩu không hợp lệ</t>
+          <t>Thanh toán VNPAY với Họ và tên trống</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nhập Email không hợp lệ (invalid@gmail.com) và Mật khẩu không hợp lệ (invalidpassword), nhấn nút "Đăng nhập"</t>
+          <t>Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập họ và tên".</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1219,7 +6657,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1229,17 +6667,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Đăng nhập với Email hợp lệ và Mật khẩu không hợp lệ</t>
+          <t>Thanh toán VNPAY với Số điện thoại trống</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com) và Mật khẩu không hợp lệ (invalidpassword), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập số điện thoại".</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1253,7 +6691,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1263,17 +6701,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Đăng nhập với Email không hợp lệ và Mật khẩu hợp lệ</t>
+          <t>Thanh toán VNPAY với Địa chỉ trống</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nhập Email không hợp lệ (invalid@gmail.com) và Mật khẩu hợp lệ (123456), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập địa chỉ".</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1287,7 +6725,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1297,17 +6735,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Đăng nhập với tài khoản bị khóa</t>
+          <t>Thanh toán VNPAY với Số điện thoại không đúng định dạng (dưới 10 số)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nhập Email tài khoản bị khóa (tester2@gmail.com) và Mật khẩu hợp lệ (12345678), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 090123456, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo tài khoản bị khóa trong 5 phút</t>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Số điện thoại không hợp lệ".</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1321,7 +6759,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1331,17 +6769,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Đăng nhập với tài khoản đã bị xóa</t>
+          <t>Thanh toán VNPAY với Số điện thoại không đúng định dạng (trên 10 số)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Nhập Email tài khoản đã bị xóa (tester3@gmail.com) và Mật khẩu hợp lệ (12345678), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 09012345678, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo "Tài khoản hoặc mật khẩu không chính xác"</t>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Số điện thoại không hợp lệ".</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1355,7 +6793,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1365,17 +6803,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Đăng nhập sai mật khẩu 5 lần</t>
+          <t>Thanh toán MOMO với Họ và tên trống</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com), nhập sai mật khẩu, nhấn nút "Đăng nhập" 5 lần</t>
+          <t>Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sau 5 lần nhập sai, tài khoản bị khóa và hiển thị thông báo tài khoản bị khóa trong 5 phút</t>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập họ và tên".</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1389,7 +6827,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1399,17 +6837,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nhập mật khẩu dưới 8 ký tự</t>
+          <t>Thanh toán MOMO với Số điện thoại trống</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com) và Mật khẩu dưới 8 ký tự (1234567), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo lỗi mật khẩu phải từ 8-25 ký tự</t>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập số điện thoại".</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1423,7 +6861,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1433,17 +6871,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nhập mật khẩu trên 25 ký tự</t>
+          <t>Thanh toán MOMO với Địa chỉ trống</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com) và Mật khẩu trên 25 ký tự (12345678901234567890123456), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo lỗi mật khẩu phải từ 8-25 ký tự</t>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Vui lòng nhập địa chỉ".</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -1457,7 +6895,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Đăng nhập</t>
+          <t>Thanh toán</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1467,21 +6905,441 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nhập mật khẩu với ký tự không cho phép</t>
+          <t>Thanh toán MOMO với Số điện thoại không đúng định dạng (dưới 10 số)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nhập Email hợp lệ (tester1@gmail.com) và Mật khẩu có ký tự không cho phép (!@#$%^), nhấn nút "Đăng nhập"</t>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 090123456, Địa chỉ: 123 Đường ABC</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Không cho phép nhập các kí tự không cho phép (!@#$%^)</t>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Số điện thoại không hợp lệ".</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TC31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thanh toán MOMO với Số điện thoại không đúng định dạng (trên 10 số)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 09012345678, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng". Hiển thị thông báo lỗi "Số điện thoại không hợp lệ".</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TC32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Kiểm tra label của nút đặt hàng hiển thị đúng</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>"Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TC33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Kiểm tra trường Họ tên có placeholder hiển thị gợi ý.</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>"Nhập họ và tên"</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TC34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Kiểm tra trường Số điện thoại có placeholder hiển thị gợi ý.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>"Nhập số điện thoại"</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TC35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Kiểm tra trường Địa chỉ có placeholder hiển thị gợi ý.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>"Nhập địa chỉ"</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TC36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Kiểm tra không chọn phương thức thanh toán nào</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Bấm "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi "Vui lòng chọn phương thức thanh toán"</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TC37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Kiểm tra tổng tiền hiển thị đúng với số lượng và giá của sản phẩm</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán khi nhận hàng"</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hiển thị tổng tiền chính xác với các sản phẩm đã chọn.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TC38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thanh toán khi nhận hàng, kiểm tra đơn hàng được tạo thành công trong hệ thống</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Kiểm tra trong database đơn hàng mới được tạo với thông tin và trạng thái chính xác.</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TC39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thanh toán VNPAY, kiểm tra thông tin đơn hàng được chuyển sang VNPAY chính xác</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán VNPAY" và bấm "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Kiểm tra các tham số được gửi sang VNPAY (ví dụ: amount, order info) là chính xác.</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TC40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thanh toán MOMO, kiểm tra thông tin đơn hàng được chuyển sang MOMO chính xác</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán MOMO" và bấm "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Kiểm tra các tham số được gửi sang MOMO (ví dụ: amount, order info) là chính xác.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TC41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kiểm tra ký tự đặc biệt trong Họ và tên</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn!@#$^&amp;*(), Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi, hoặc cho phép thanh toán nhưng dữ liệu được lưu trữ chính xác.</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TC42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Thanh toán</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Kiểm tra ký tự đặc biệt trong Địa chỉ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Họ và tên: Nguyễn Văn A, Số điện thoại: 0901234567, Địa chỉ: 123 Đường ABC!@#</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Chọn "Thanh toán khi nhận hàng" và bấm "Đặt hàng"</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi, hoặc cho phép thanh toán nhưng dữ liệu được lưu trữ chính xác.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/testcases/testcases.xlsx
+++ b/data/testcases/testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,8 @@
     <sheet name="Detail" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Cart" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Payment" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Demo" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Demo2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2665,7 +2667,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>safe_type() missing 1 required positional argument: 'text'</t>
+          <t>Thêm sản phẩm vào giỏ hàng thành công.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2850,7 +2852,7 @@
   </sheetPr>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -3264,7 +3266,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tổng tiền sản phẩm không hợp lệ</t>
+          <t>Tổng tiền sản phẩm là là hợp lệ</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3306,12 +3308,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>list index out of range</t>
+          <t>"Tổng tiền giỏ hàng là hợp lệ, bằng tổng tiền các sản phẩm"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -3506,13 +3508,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Message: 
-</t>
+          <t>"Chuyển hướng đến trang thanh toán"</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4242,12 +4243,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phương thức thanh toán lỗi vui lòng thử lại.</t>
+          <t>Chuyển hướng đến trang thanh toán MOMO</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4285,1487 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hiển thị thông báo bạn đã đặt hàng thành công</t>
+          <t>Không tìm thấy thông báo nào</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loại test case</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dữ liệu test</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Kỳ vọng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thực tế</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kiểm tra sự hiển thị của ô tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>"Ô tìm kiếm hiển thị, placeholder là 'Tìm kiếm sản phẩm'"</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ô tìm kiếm hiển thị placeholder là tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kiểm tra sự hiển thị của button tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>"Button tìm kiếm hiển thị"</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>button tìm kiếm hiển thị</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiểm tra placeholder của ô tìm kiếm</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>"Placeholder trong ô tìm kiếm là 'Tìm kiếm sản phẩm'"</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>placeholder trong ô tìm kiếm là tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kiểm tra ngôn ngữ hiển thị của placeholder</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>"Placeholder hiển thị bằng tiếng Việt"</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>placeholder hiển thị bằng tiếng việt</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa có trong danh sách sản phẩm (Life)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa không có trong danh sách sản phẩm (zzxy)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Từ khóa: zzxy</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm không hiển thị, button 'Xem thêm' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Không tìm được sản phẩm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa có khoảng trắng ở đầu (  Life)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Từ khóa:   Life</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa có khoảng trắng ở cuối (Life  )</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa có cả khoảng trắng đầu và cuối (  Life  )</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Từ khóa:   Life</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là chữ thường (life)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Từ khóa: life</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là chữ hoa (LIFE)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Từ khóa: LIFE</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Tìm kiếm bằng cách nhấn Enter</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tìm kiếm bằng cách nhấn nút tìm kiếm</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Từ khóa: Life</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm chứa 'Life' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là ký tự đặc biệt (!@#)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Từ khóa: !@#</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm không hiển thị, button 'Xem thêm' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hệ thống cho phép tìm kiếm với ký tự đặc biệt, có kết quả trả về</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là số (12345)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Từ khóa: 12345</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm không hiển thị, button 'Xem thêm' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hệ thống cho phép tìm kiếm với ký tự số, có kết quả trả về</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa là ký tự in hoa và số (LIFE123)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Từ khóa: LIFE123</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm không hiển thị, button 'Xem thêm' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Không tìm được sản phẩm</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tìm kiếm sản phẩm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tìm kiếm với từ khóa trống</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Từ khóa:</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm không hiển thị, button 'Xem thêm' hiển thị"</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>"Danh sách sản phẩm không hiển thị, button 'Xem thêm' hiển thị"</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Loại test case</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mô tả</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Dữ liệu test</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Kỳ vọng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Thực tế</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TC01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị các cột</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Hiển thị đầy đủ các cột: Sản Phẩm, Đơn giá, Số lượng, Tổng</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Không hỗ trợ mô tả</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Skip</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kiểm tra ngôn ngữ hiển thị</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Ngôn ngữ hiển thị là tiếng Việt</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ngôn ngữ hiển thị là tiếng việt</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị tổng tiền</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Hiển thị dòng tổng tiền</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>tổng tiền của giỏ hàng hiển thị đúng định dạng tiền tệ (vnđ) và giá trị chính xác (tổng của tất cả các tổng tiền sản phẩm)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị button "Thanh toán"</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hiển thị button "Thanh toán"</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>hiển thị button thanh toán</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị liên kết "Tiếp tục mua sắm"</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hiển thị liên kết "Tiếp tục mua sắm"</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>hiển thị liên kết tiếp tục mua sắm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>UI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kiểm tra hiển thị button xóa</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hiển thị button xóa cho từng sản phẩm</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>hiển thị button xóa cho từng sản phẩm</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kiểm tra tính toán tổng tiền khi số lượng sản phẩm là 2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm 1: 2, Số lượng sản phẩm 2: 2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tổng tiền hiển thị chính xác (tổng đơn giá * số lượng)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tổng tiền giỏ hàng là hợp lệ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC08</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kiểm tra tính toán tổng của 1 sản phẩm</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm 1: 1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tổng hiển thị chính xác bằng đơn giá</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm hợp lệ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC09</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kiểm tra thay đổi số lượng sản phẩm hợp lệ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm 1: 2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm được thay đổi thành công và tổng tiền được cập nhật tương ứng</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tổng tiền giỏ hàng là hợp lệ</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kiểm tra thay đổi số lượng sản phẩm nhỏ hơn 1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm 1: 0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi và số lượng không thay đổi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>vẫn giảm về 0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Kiểm tra thay đổi số lượng sản phẩm bằng 1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm 1: 1</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm được thay đổi thành công</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm hợp lệ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Kiểm tra thay đổi số lượng sản phẩm lớn hơn số lượng tồn kho</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Số lượng sản phẩm 1: 453</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Hiển thị thông báo lỗi và số lượng không thay đổi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>vượt số lượng tồn kho</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Kiểm tra chức năng button "Thanh toán"</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Chuyển hướng đến trang thanh toán</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chuyển hướng đến trang thanh toán</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Kiểm tra chức năng liên kết "Tiếp tục mua sắm"</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Chuyển hướng đến trang sản phẩm</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Chuyển hướng đến trang sản phẩm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Kiểm tra chức năng button "Xóa"</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sản phẩm được xóa khỏi giỏ hàng và cập nhật tổng tiền</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sản phẩm bị xóa khỏi giỏ hàng thành công</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Kiểm tra xóa sản phẩm cuối cùng trong giỏ hàng</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Giỏ hàng trống, hiển thị thông báo (nếu có)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sản phẩm bị xóa khỏi giỏ hàng thành công</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TC17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Giỏ hàng</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chức năng</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Kiểm tra tổng tiền khi giỏ hàng trống</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tổng tiền hiển thị là 0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Giỏ hàng không trống</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Fail</t>
         </is>
       </c>
     </row>
